--- a/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,35 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>750</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1750</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1750</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2250</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
@@ -488,297 +473,1597 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.0625</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01479</v>
+        <v>0.001456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002472</v>
+        <v>0.001795</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001719</v>
+        <v>0.00188</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001691</v>
+        <v>0.001884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001715</v>
+        <v>0.00187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001737</v>
+        <v>0.00188</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001766</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.001809</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.001798</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.001832</v>
+        <v>0.001881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.248</v>
+        <v>0.00179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02471</v>
+        <v>0.001838</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00627</v>
+        <v>0.001822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002871</v>
+        <v>0.001804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002018</v>
+        <v>0.001853</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001749</v>
+        <v>0.001817</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001705</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001692</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.00171</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.001705</v>
+        <v>0.001817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.1875</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.129</v>
+        <v>0.001487</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4197</v>
+        <v>0.00177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09897</v>
+        <v>0.001806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.034</v>
+        <v>0.001774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01469</v>
+        <v>0.001824</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007667</v>
+        <v>0.001839</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004489</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.003191</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.002482</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.002116</v>
+        <v>0.001339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.83</v>
+        <v>0.001503</v>
       </c>
       <c r="C5" t="n">
-        <v>2.186</v>
+        <v>0.001723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5201</v>
+        <v>0.001769</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1801</v>
+        <v>0.001758</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07693999999999999</v>
+        <v>0.001564</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03567</v>
+        <v>0.001768</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02076</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01223</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.008099</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.005613</v>
+        <v>0.001837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.3125</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.2</v>
+        <v>0.0015</v>
       </c>
       <c r="C6" t="n">
-        <v>6.927</v>
+        <v>0.001685</v>
       </c>
       <c r="D6" t="n">
-        <v>1.664</v>
+        <v>0.00171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5779</v>
+        <v>0.001412</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2489</v>
+        <v>0.001747</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1235</v>
+        <v>0.001713</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06763</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.03996</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0252</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01671</v>
+        <v>0.001709</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161</v>
+        <v>0.001881</v>
       </c>
       <c r="C7" t="n">
-        <v>16.93</v>
+        <v>0.001357</v>
       </c>
       <c r="D7" t="n">
-        <v>4.107</v>
+        <v>0.001691</v>
       </c>
       <c r="E7" t="n">
-        <v>1.428</v>
+        <v>0.001695</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5917</v>
+        <v>0.001691</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3091</v>
+        <v>0.001722</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1697</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1005</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.06276</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.04107</v>
+        <v>0.001732</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.4375</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.1</v>
+        <v>0.002251</v>
       </c>
       <c r="C8" t="n">
-        <v>35.23</v>
+        <v>0.001829</v>
       </c>
       <c r="D8" t="n">
-        <v>8.491</v>
+        <v>0.001435</v>
       </c>
       <c r="E8" t="n">
-        <v>2.99</v>
+        <v>0.001688</v>
       </c>
       <c r="F8" t="n">
-        <v>1.296</v>
+        <v>0.001712</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6493</v>
+        <v>0.001559</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.2116</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1332</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.08751</v>
+        <v>0.001744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.002839</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.001944</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.001418</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00136</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001535</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001692</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.001566</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>0.5625</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.003968</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.002073</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.001708</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001717</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001698</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.001674</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.001668</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>0.625</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.005507</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.002948</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.002153</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001502</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001717</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.001677</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001708</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>0.6875</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00766</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003693</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.002519</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.001994</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.001665</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.001576</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01066</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.005105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.003004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002274</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.001722</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.00143</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.001408</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>0.8125</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.01441</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.006506</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.003621</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002534</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.002132</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.001807</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.001596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>0.875</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.01993</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.008697999999999999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.004804</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.003038</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.002385</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.002023</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.001788</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>0.9375</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0261</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01146</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.006047</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.003735</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.002673</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.002093</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.001753</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.03241</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.01465</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.007586</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.004544</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003156</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.002476</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.002074</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>1.0625</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.04358</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.01893</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00954</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.005578</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003629</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.002816</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.002297</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>1.125</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.05545</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.02403</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.01192</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.006804</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.004393</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.003108</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.002331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06931</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.02949</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.01448</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.008395</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.005356</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.003786</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.002867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.08576</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.03643</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.01802</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01016</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.006359</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.004297</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.003219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>1.3125</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1027</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.04398</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.02222</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01219</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.007552</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.005087</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.003658</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>1.375</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1262</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05342</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.02698</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01474</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.008921</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.005523</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.004281</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>1.4375</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1518</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.06413000000000001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.03184</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01779</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.01056</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.006985</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.1808</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.07292999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.03814</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.02116</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.01252</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.008075000000000001</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.005684</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>1.5625</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2116</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.08955</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0434</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.02465</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.01466</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.009299</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.006481</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>1.625</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2498</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1055</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.05312</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.02894</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01097</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.007436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>1.6875</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2905</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1235</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.06217</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.03362</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.01999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01262</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.008629</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3365</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1449</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.07119</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.03927</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02268</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01467</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.009974999999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>1.8125</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.3867</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1679</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.08291</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04545</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.02681</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01704</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.01115</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>1.875</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1912</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.09494</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.05294</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.03093</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01942</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>1.9375</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4989</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2195</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.1094</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.05756</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.03518</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02219</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.01453</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5826</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.1255</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06791</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04029</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.02516</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.01656</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>2.0625</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.6481</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1392</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.07618</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04559</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02846</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.01875</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>2.125</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7331</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3104</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1587</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.08637</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05062</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03225</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02127</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>2.1875</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.8438</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.09518</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.05765</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.03659</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9232</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4018</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1977</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1092</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.06465</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04043</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02688</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>2.3125</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.4401</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2258</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1233</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0728</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0454</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03012</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>2.375</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1364</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.08098</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0511</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>2.4375</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1.289</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5572</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2761</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.09062000000000001</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05713</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03748</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5772</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.3079</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1688</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1004</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.06193</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04071</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>2.5625</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1.575</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6835</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3415</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1882</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1109</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.06955</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04557</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>2.625</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7561</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3694</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.2072</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1219</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.07643999999999999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05053</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.8331</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4163</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.2257</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1336</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.08499</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.05568</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8952</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4515</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.2533</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.1501</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.09309000000000001</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.06081</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>2.8125</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5006</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.2654</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1614</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.1017</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.06710000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>2.875</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2.423</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5455</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.2978</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1788</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1123</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.07325</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>2.738</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5978</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1193</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.07853</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.3563</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2125</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1333</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.08626</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>3.0625</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3.235</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.7028</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.3913</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.2138</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1455</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.09556000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>3.125</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>3.526</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.543</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.4259</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.2489</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1574</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.1025</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>3.1875</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.644</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.8292</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.4582</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1697</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4.106</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.802</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.8927</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.4977</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.2943</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.1834</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>3.3125</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4.451</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.923</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.9088000000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5309</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.3193</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.1992</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1295</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>3.375</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4.522</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.057</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5808</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.2159</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1408</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>3.4375</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5.086</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.2337</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.1517</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
           <t>3.5</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>621.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>60.47</v>
-      </c>
-      <c r="D9" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5.531</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.411</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.204</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6624</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.3948</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2502</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1639</v>
+      <c r="B57" t="n">
+        <v>5.391</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.208</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.3915</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.1649</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.3775</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1627</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.08057</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.04396</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.02594</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0166</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.01103</v>
       </c>
     </row>
   </sheetData>

--- a/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
+++ b/01_signal_production/Data_Generation_wRHC/Data_5K_13_TeV/ta_ta/Cross_Sections/XS_Matriz.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001456</v>
+        <v>5.655e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001795</v>
+        <v>2.507e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00188</v>
+        <v>1.261e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001884</v>
+        <v>6.937000000000001e-08</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00187</v>
+        <v>4.176e-08</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00188</v>
+        <v>2.66e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001881</v>
+        <v>1.766e-08</v>
       </c>
     </row>
     <row r="3">
@@ -505,25 +505,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00179</v>
+        <v>9.074e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001838</v>
+        <v>3.964e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001822</v>
+        <v>2.024e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001804</v>
+        <v>1.117e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001853</v>
+        <v>6.668e-07</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001817</v>
+        <v>4.287e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001817</v>
+        <v>2.809e-07</v>
       </c>
     </row>
     <row r="4">
@@ -533,25 +533,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001487</v>
+        <v>4.617e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00177</v>
+        <v>1.99e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001806</v>
+        <v>9.908999999999999e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001774</v>
+        <v>5.667e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001824</v>
+        <v>3.37e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001839</v>
+        <v>2.14e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001339</v>
+        <v>1.333e-06</v>
       </c>
     </row>
     <row r="5">
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001503</v>
+        <v>0.0001485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001723</v>
+        <v>6.37e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001769</v>
+        <v>3.211e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001758</v>
+        <v>1.79e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001564</v>
+        <v>1.08e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001768</v>
+        <v>6.801e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001837</v>
+        <v>4.541e-06</v>
       </c>
     </row>
     <row r="6">
@@ -589,25 +589,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0015</v>
+        <v>0.000354</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001685</v>
+        <v>0.0001576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00171</v>
+        <v>7.904e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001412</v>
+        <v>4.38e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001747</v>
+        <v>2.611e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001713</v>
+        <v>1.668e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001709</v>
+        <v>1.112e-05</v>
       </c>
     </row>
     <row r="7">
@@ -617,25 +617,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.001881</v>
+        <v>0.0007396</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001357</v>
+        <v>0.0003218</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001691</v>
+        <v>0.0001634</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001695</v>
+        <v>9.135e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001691</v>
+        <v>5.443e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001722</v>
+        <v>3.441e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001732</v>
+        <v>2.294e-05</v>
       </c>
     </row>
     <row r="8">
@@ -645,25 +645,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002251</v>
+        <v>0.001343</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001829</v>
+        <v>0.0005943</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001435</v>
+        <v>0.0003032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001688</v>
+        <v>0.0001676</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001712</v>
+        <v>0.0001001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001559</v>
+        <v>6.381e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001744</v>
+        <v>4.266e-05</v>
       </c>
     </row>
     <row r="9">
@@ -673,25 +673,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002839</v>
+        <v>0.002338</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001944</v>
+        <v>0.001026</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001418</v>
+        <v>0.0005018000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00136</v>
+        <v>0.000287</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001535</v>
+        <v>0.0001719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001692</v>
+        <v>0.0001105</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001566</v>
+        <v>7.207000000000001e-05</v>
       </c>
     </row>
     <row r="10">
@@ -701,25 +701,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003968</v>
+        <v>0.003742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002073</v>
+        <v>0.00164</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001708</v>
+        <v>0.00083</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001717</v>
+        <v>0.0004592</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001698</v>
+        <v>0.0002781</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001674</v>
+        <v>0.0001756</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001668</v>
+        <v>0.0001163</v>
       </c>
     </row>
     <row r="11">
@@ -729,25 +729,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005507</v>
+        <v>0.005612</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002948</v>
+        <v>0.002496</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002153</v>
+        <v>0.001256</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001502</v>
+        <v>0.0006951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001717</v>
+        <v>0.0004214</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001677</v>
+        <v>0.0002653</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001708</v>
+        <v>0.0001769</v>
       </c>
     </row>
     <row r="12">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00766</v>
+        <v>0.008366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003693</v>
+        <v>0.003641</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002519</v>
+        <v>0.001825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001994</v>
+        <v>0.00104</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00166</v>
+        <v>0.0006099</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001665</v>
+        <v>0.0003932</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001576</v>
+        <v>0.0002562</v>
       </c>
     </row>
     <row r="13">
@@ -785,25 +785,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01066</v>
+        <v>0.01185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.005105</v>
+        <v>0.005164</v>
       </c>
       <c r="D13" t="n">
-        <v>0.003004</v>
+        <v>0.002627</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002274</v>
+        <v>0.001466</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001722</v>
+        <v>0.0008631999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00143</v>
+        <v>0.0005491</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001408</v>
+        <v>0.0003629</v>
       </c>
     </row>
     <row r="14">
@@ -813,25 +813,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01441</v>
+        <v>0.01646</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006506</v>
+        <v>0.007022</v>
       </c>
       <c r="D14" t="n">
-        <v>0.003621</v>
+        <v>0.003584</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002534</v>
+        <v>0.002007</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002132</v>
+        <v>0.001203</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001807</v>
+        <v>0.0007621</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001596</v>
+        <v>0.000504</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +841,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01993</v>
+        <v>0.02184</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008697999999999999</v>
+        <v>0.009531</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004804</v>
+        <v>0.004859</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003038</v>
+        <v>0.002658</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002385</v>
+        <v>0.001621</v>
       </c>
       <c r="G15" t="n">
-        <v>0.002023</v>
+        <v>0.001026</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001788</v>
+        <v>0.0006689000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -869,25 +869,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0261</v>
+        <v>0.02872</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01146</v>
+        <v>0.01277</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006047</v>
+        <v>0.006327</v>
       </c>
       <c r="E16" t="n">
-        <v>0.003735</v>
+        <v>0.003478</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002673</v>
+        <v>0.002131</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002093</v>
+        <v>0.00135</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001753</v>
+        <v>0.0008899999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -897,25 +897,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03241</v>
+        <v>0.03748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.01465</v>
+        <v>0.01645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007586</v>
+        <v>0.008241999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004544</v>
+        <v>0.004591</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003156</v>
+        <v>0.002746</v>
       </c>
       <c r="G17" t="n">
-        <v>0.002476</v>
+        <v>0.001713</v>
       </c>
       <c r="H17" t="n">
-        <v>0.002074</v>
+        <v>0.001168</v>
       </c>
     </row>
     <row r="18">
@@ -925,25 +925,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.04358</v>
+        <v>0.04625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.01893</v>
+        <v>0.02086</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00954</v>
+        <v>0.01057</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005578</v>
+        <v>0.005793</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003629</v>
+        <v>0.003524</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002816</v>
+        <v>0.002226</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002297</v>
+        <v>0.001477</v>
       </c>
     </row>
     <row r="19">
@@ -953,25 +953,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.05545</v>
+        <v>0.05983</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02403</v>
+        <v>0.02597</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01192</v>
+        <v>0.01305</v>
       </c>
       <c r="E19" t="n">
-        <v>0.006804</v>
+        <v>0.007348</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004393</v>
+        <v>0.004432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003108</v>
+        <v>0.002726</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002331</v>
+        <v>0.001865</v>
       </c>
     </row>
     <row r="20">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06931</v>
+        <v>0.07386</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02949</v>
+        <v>0.03261</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01448</v>
+        <v>0.01646</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008395</v>
+        <v>0.009074</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005356</v>
+        <v>0.005459</v>
       </c>
       <c r="G20" t="n">
-        <v>0.003786</v>
+        <v>0.003477</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002867</v>
+        <v>0.002307</v>
       </c>
     </row>
     <row r="21">
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.08576</v>
+        <v>0.09156</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03643</v>
+        <v>0.03981</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01802</v>
+        <v>0.02005</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01016</v>
+        <v>0.0112</v>
       </c>
       <c r="F21" t="n">
-        <v>0.006359</v>
+        <v>0.006578</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004297</v>
+        <v>0.004288</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003219</v>
+        <v>0.002857</v>
       </c>
     </row>
     <row r="22">
@@ -1037,25 +1037,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1027</v>
+        <v>0.1114</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04398</v>
+        <v>0.04859</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02222</v>
+        <v>0.0245</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01219</v>
+        <v>0.01376</v>
       </c>
       <c r="F22" t="n">
-        <v>0.007552</v>
+        <v>0.008016000000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005087</v>
+        <v>0.005158</v>
       </c>
       <c r="H22" t="n">
-        <v>0.003658</v>
+        <v>0.003419</v>
       </c>
     </row>
     <row r="23">
@@ -1065,25 +1065,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1262</v>
+        <v>0.1347</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05342</v>
+        <v>0.05866</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02698</v>
+        <v>0.02955</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01474</v>
+        <v>0.0165</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008921</v>
+        <v>0.009767</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005523</v>
+        <v>0.00622</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004281</v>
+        <v>0.004116</v>
       </c>
     </row>
     <row r="24">
@@ -1093,25 +1093,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1518</v>
+        <v>0.1587</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06413000000000001</v>
+        <v>0.06955</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03184</v>
+        <v>0.03538</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01779</v>
+        <v>0.01955</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01056</v>
+        <v>0.01191</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006985</v>
+        <v>0.007446</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004742</v>
+        <v>0.004953</v>
       </c>
     </row>
     <row r="25">
@@ -1121,25 +1121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1808</v>
+        <v>0.1887</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07292999999999999</v>
+        <v>0.0837</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03814</v>
+        <v>0.0415</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02116</v>
+        <v>0.02324</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01252</v>
+        <v>0.01392</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008075000000000001</v>
+        <v>0.008770999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.005684</v>
+        <v>0.005882</v>
       </c>
     </row>
     <row r="26">
@@ -1149,25 +1149,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2116</v>
+        <v>0.2227</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08955</v>
+        <v>0.09748999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0434</v>
+        <v>0.04965</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02465</v>
+        <v>0.02734</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01466</v>
+        <v>0.01643</v>
       </c>
       <c r="G26" t="n">
-        <v>0.009299</v>
+        <v>0.01046</v>
       </c>
       <c r="H26" t="n">
-        <v>0.006481</v>
+        <v>0.006889</v>
       </c>
     </row>
     <row r="27">
@@ -1177,25 +1177,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2498</v>
+        <v>0.2617</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1055</v>
+        <v>0.1139</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05312</v>
+        <v>0.05741</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02894</v>
+        <v>0.03199</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0172</v>
+        <v>0.01909</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01097</v>
+        <v>0.0122</v>
       </c>
       <c r="H27" t="n">
-        <v>0.007436</v>
+        <v>0.008161</v>
       </c>
     </row>
     <row r="28">
@@ -1205,25 +1205,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2905</v>
+        <v>0.3066</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1235</v>
+        <v>0.1329</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06217</v>
+        <v>0.06711</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03362</v>
+        <v>0.03784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01999</v>
+        <v>0.0223</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01262</v>
+        <v>0.01412</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008629</v>
+        <v>0.009221</v>
       </c>
     </row>
     <row r="29">
@@ -1233,25 +1233,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3365</v>
+        <v>0.3488</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1449</v>
+        <v>0.1541</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07119</v>
+        <v>0.07711</v>
       </c>
       <c r="E29" t="n">
-        <v>0.03927</v>
+        <v>0.04331</v>
       </c>
       <c r="F29" t="n">
-        <v>0.02268</v>
+        <v>0.02592</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01467</v>
+        <v>0.01643</v>
       </c>
       <c r="H29" t="n">
-        <v>0.009974999999999999</v>
+        <v>0.01072</v>
       </c>
     </row>
     <row r="30">
@@ -1261,25 +1261,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3867</v>
+        <v>0.4034</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1679</v>
+        <v>0.1748</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08291</v>
+        <v>0.08903</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04545</v>
+        <v>0.0494</v>
       </c>
       <c r="F30" t="n">
-        <v>0.02681</v>
+        <v>0.02947</v>
       </c>
       <c r="G30" t="n">
-        <v>0.01704</v>
+        <v>0.01899</v>
       </c>
       <c r="H30" t="n">
-        <v>0.01115</v>
+        <v>0.01257</v>
       </c>
     </row>
     <row r="31">
@@ -1289,25 +1289,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.44</v>
+        <v>0.4612</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1912</v>
+        <v>0.2031</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09494</v>
+        <v>0.1023</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05294</v>
+        <v>0.05688</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03093</v>
+        <v>0.03408</v>
       </c>
       <c r="G31" t="n">
-        <v>0.01942</v>
+        <v>0.02168</v>
       </c>
       <c r="H31" t="n">
-        <v>0.01275</v>
+        <v>0.01435</v>
       </c>
     </row>
     <row r="32">
@@ -1317,25 +1317,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4989</v>
+        <v>0.5273</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2195</v>
+        <v>0.2322</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1094</v>
+        <v>0.1149</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05756</v>
+        <v>0.06466</v>
       </c>
       <c r="F32" t="n">
-        <v>0.03518</v>
+        <v>0.03879</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02219</v>
+        <v>0.0244</v>
       </c>
       <c r="H32" t="n">
-        <v>0.01453</v>
+        <v>0.01643</v>
       </c>
     </row>
     <row r="33">
@@ -1345,25 +1345,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.5826</v>
+        <v>0.5991</v>
       </c>
       <c r="C33" t="n">
-        <v>0.247</v>
+        <v>0.2613</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1255</v>
+        <v>0.1326</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06791</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04029</v>
+        <v>0.04392</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02516</v>
+        <v>0.02783</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01656</v>
+        <v>0.01869</v>
       </c>
     </row>
     <row r="34">
@@ -1373,25 +1373,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.6481</v>
+        <v>0.6651</v>
       </c>
       <c r="C34" t="n">
-        <v>0.283</v>
+        <v>0.2974</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1392</v>
+        <v>0.1494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07618</v>
+        <v>0.08064</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04559</v>
+        <v>0.04844</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02846</v>
+        <v>0.03169</v>
       </c>
       <c r="H34" t="n">
-        <v>0.01875</v>
+        <v>0.02092</v>
       </c>
     </row>
     <row r="35">
@@ -1401,25 +1401,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.7331</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3104</v>
+        <v>0.3347</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1587</v>
+        <v>0.1658</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08637</v>
+        <v>0.09412</v>
       </c>
       <c r="F35" t="n">
-        <v>0.05062</v>
+        <v>0.05576</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03225</v>
+        <v>0.03567</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02127</v>
+        <v>0.02371</v>
       </c>
     </row>
     <row r="36">
@@ -1429,25 +1429,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8438</v>
+        <v>0.8557</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3577</v>
+        <v>0.376</v>
       </c>
       <c r="D36" t="n">
-        <v>0.178</v>
+        <v>0.1887</v>
       </c>
       <c r="E36" t="n">
-        <v>0.09518</v>
+        <v>0.1053</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05765</v>
+        <v>0.06243</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03659</v>
+        <v>0.04001</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02314</v>
+        <v>0.02658</v>
       </c>
     </row>
     <row r="37">
@@ -1457,25 +1457,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9232</v>
+        <v>0.9637</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4018</v>
+        <v>0.4227</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1977</v>
+        <v>0.2108</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1092</v>
+        <v>0.1174</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06465</v>
+        <v>0.07066</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04043</v>
+        <v>0.04449</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02688</v>
+        <v>0.02953</v>
       </c>
     </row>
     <row r="38">
@@ -1485,25 +1485,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.042</v>
+        <v>1.065</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4401</v>
+        <v>0.4646</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2258</v>
+        <v>0.2346</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1233</v>
+        <v>0.1315</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0728</v>
+        <v>0.07872999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0454</v>
+        <v>0.04966</v>
       </c>
       <c r="H38" t="n">
-        <v>0.03012</v>
+        <v>0.03318</v>
       </c>
     </row>
     <row r="39">
@@ -1513,25 +1513,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.16</v>
+        <v>1.185</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5001</v>
+        <v>0.5174</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2528</v>
+        <v>0.2634</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1364</v>
+        <v>0.1464</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08098</v>
+        <v>0.08771</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0511</v>
+        <v>0.05544</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03332</v>
+        <v>0.03725</v>
       </c>
     </row>
     <row r="40">
@@ -1541,25 +1541,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.289</v>
+        <v>1.33</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5572</v>
+        <v>0.5827</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2761</v>
+        <v>0.2873</v>
       </c>
       <c r="E40" t="n">
-        <v>0.152</v>
+        <v>0.1615</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09062000000000001</v>
+        <v>0.09775</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05713</v>
+        <v>0.06208</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03748</v>
+        <v>0.03892</v>
       </c>
     </row>
     <row r="41">
@@ -1569,25 +1569,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.431</v>
+        <v>1.456</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5772</v>
+        <v>0.632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3079</v>
+        <v>0.323</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1688</v>
+        <v>0.1792</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1004</v>
+        <v>0.1068</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06193</v>
+        <v>0.06839000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04071</v>
+        <v>0.04539</v>
       </c>
     </row>
     <row r="42">
@@ -1597,25 +1597,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.575</v>
+        <v>1.619</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6835</v>
+        <v>0.7044</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3415</v>
+        <v>0.3466</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1882</v>
+        <v>0.1978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1109</v>
+        <v>0.1145</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06955</v>
+        <v>0.07535</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04557</v>
+        <v>0.04978</v>
       </c>
     </row>
     <row r="43">
@@ -1625,25 +1625,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.742</v>
+        <v>1.785</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7561</v>
+        <v>0.7662</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3694</v>
+        <v>0.3913</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2072</v>
+        <v>0.2157</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1219</v>
+        <v>0.13</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07643999999999999</v>
+        <v>0.08333</v>
       </c>
       <c r="H43" t="n">
-        <v>0.05053</v>
+        <v>0.05432</v>
       </c>
     </row>
     <row r="44">
@@ -1653,25 +1653,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.932</v>
+        <v>1.911</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8331</v>
+        <v>0.857</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4163</v>
+        <v>0.4291</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2257</v>
+        <v>0.2404</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1336</v>
+        <v>0.1442</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08499</v>
+        <v>0.09130000000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05568</v>
+        <v>0.06065</v>
       </c>
     </row>
     <row r="45">
@@ -1681,25 +1681,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.1</v>
+        <v>2.165</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8952</v>
+        <v>0.9425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4515</v>
+        <v>0.4761</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2533</v>
+        <v>0.2664</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1501</v>
+        <v>0.1555</v>
       </c>
       <c r="G45" t="n">
-        <v>0.09309000000000001</v>
+        <v>0.09884</v>
       </c>
       <c r="H45" t="n">
-        <v>0.06081</v>
+        <v>0.06628000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1709,25 +1709,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.323</v>
+        <v>2.365</v>
       </c>
       <c r="C46" t="n">
-        <v>1.007</v>
+        <v>1.032</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5006</v>
+        <v>0.515</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2654</v>
+        <v>0.2827</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1614</v>
+        <v>0.1718</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1017</v>
+        <v>0.1092</v>
       </c>
       <c r="H46" t="n">
-        <v>0.06710000000000001</v>
+        <v>0.07266</v>
       </c>
     </row>
     <row r="47">
@@ -1737,25 +1737,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.423</v>
+        <v>2.572</v>
       </c>
       <c r="C47" t="n">
-        <v>1.095</v>
+        <v>1.117</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5455</v>
+        <v>0.5602</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2978</v>
+        <v>0.3162</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1788</v>
+        <v>0.1884</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1123</v>
+        <v>0.1198</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07325</v>
+        <v>0.07905</v>
       </c>
     </row>
     <row r="48">
@@ -1765,25 +1765,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.738</v>
+        <v>2.81</v>
       </c>
       <c r="C48" t="n">
-        <v>1.196</v>
+        <v>1.224</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5978</v>
+        <v>0.6213</v>
       </c>
       <c r="E48" t="n">
-        <v>0.325</v>
+        <v>0.3453</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1929</v>
+        <v>0.2041</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1193</v>
+        <v>0.1302</v>
       </c>
       <c r="H48" t="n">
-        <v>0.07853</v>
+        <v>0.08687</v>
       </c>
     </row>
     <row r="49">
@@ -1793,25 +1793,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.962</v>
+        <v>3.041</v>
       </c>
       <c r="C49" t="n">
-        <v>1.306</v>
+        <v>1.329</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6447000000000001</v>
+        <v>0.6705</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3563</v>
+        <v>0.3725</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2125</v>
+        <v>0.2231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1333</v>
+        <v>0.1402</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08626</v>
+        <v>0.09438000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -1821,25 +1821,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.235</v>
+        <v>3.3</v>
       </c>
       <c r="C50" t="n">
-        <v>1.409</v>
+        <v>1.415</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7028</v>
+        <v>0.7212</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3913</v>
+        <v>0.4006</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2138</v>
+        <v>0.2417</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1455</v>
+        <v>0.1532</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09556000000000001</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="51">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3.526</v>
+        <v>3.588</v>
       </c>
       <c r="C51" t="n">
-        <v>1.543</v>
+        <v>1.568</v>
       </c>
       <c r="D51" t="n">
-        <v>0.771</v>
+        <v>0.7613</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4259</v>
+        <v>0.4435</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2489</v>
+        <v>0.2608</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1574</v>
+        <v>0.1648</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1025</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="52">
@@ -1877,25 +1877,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.82</v>
+        <v>3.776</v>
       </c>
       <c r="C52" t="n">
-        <v>1.644</v>
+        <v>1.709</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8292</v>
+        <v>0.8458</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4582</v>
+        <v>0.4741</v>
       </c>
       <c r="F52" t="n">
-        <v>0.264</v>
+        <v>0.2848</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1697</v>
+        <v>0.1804</v>
       </c>
       <c r="H52" t="n">
-        <v>0.112</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="53">
@@ -1905,25 +1905,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.106</v>
+        <v>4.156</v>
       </c>
       <c r="C53" t="n">
-        <v>1.802</v>
+        <v>1.828</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8927</v>
+        <v>0.9235</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4977</v>
+        <v>0.5063</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2943</v>
+        <v>0.3092</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1834</v>
+        <v>0.1965</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1188</v>
+        <v>0.1303</v>
       </c>
     </row>
     <row r="54">
@@ -1933,25 +1933,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.451</v>
+        <v>4.463</v>
       </c>
       <c r="C54" t="n">
-        <v>1.923</v>
+        <v>1.978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9088000000000001</v>
+        <v>1.002</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5309</v>
+        <v>0.5555</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3193</v>
+        <v>0.3322</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1992</v>
+        <v>0.2103</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1295</v>
+        <v>0.1403</v>
       </c>
     </row>
     <row r="55">
@@ -1961,25 +1961,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.522</v>
+        <v>4.854</v>
       </c>
       <c r="C55" t="n">
-        <v>2.084</v>
+        <v>2.113</v>
       </c>
       <c r="D55" t="n">
-        <v>1.057</v>
+        <v>1.078</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5808</v>
+        <v>0.595</v>
       </c>
       <c r="F55" t="n">
-        <v>0.342</v>
+        <v>0.3539</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2159</v>
+        <v>0.2265</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1408</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="56">
@@ -1989,25 +1989,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.086</v>
+        <v>5.166</v>
       </c>
       <c r="C56" t="n">
-        <v>2.175</v>
+        <v>2.242</v>
       </c>
       <c r="D56" t="n">
-        <v>1.122</v>
+        <v>1.151</v>
       </c>
       <c r="E56" t="n">
-        <v>0.628</v>
+        <v>0.648</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3675</v>
+        <v>0.3821</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2337</v>
+        <v>0.2429</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1517</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="57">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.391</v>
+        <v>5.383</v>
       </c>
       <c r="C57" t="n">
-        <v>2.41</v>
+        <v>2.456</v>
       </c>
       <c r="D57" t="n">
-        <v>1.208</v>
+        <v>1.242</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6682</v>
+        <v>0.6919</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3915</v>
+        <v>0.4091</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2507</v>
+        <v>0.2611</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1649</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="58">
